--- a/pyRefSearchUdeS.xlsx
+++ b/pyRefSearchUdeS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke-my.sharepoint.com/personal/chap1202_usherbrooke_ca/Documents/Documents on OneDrive/Python/Pycharm/pyScopus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke-my.sharepoint.com/personal/chap1202_usherbrooke_ca/Documents/Documents on OneDrive/Python/Pycharm/pyRefSearchUdeS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{C08FA9F6-1CF0-4E10-85BA-3A27D481FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8662AE22-2794-45B9-8434-E66E1708476F}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{C08FA9F6-1CF0-4E10-85BA-3A27D481FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560D03F7-E97A-4CA8-9328-EAE5CF0D2840}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1545" windowWidth="9360" windowHeight="19860" xr2:uid="{7630F7AB-7B4D-4574-B1CC-443EE05BEA9A}"/>
+    <workbookView xWindow="4545" yWindow="1335" windowWidth="21450" windowHeight="19575" xr2:uid="{7630F7AB-7B4D-4574-B1CC-443EE05BEA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Membres réguliers" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={F0F92616-1F98-4885-9E32-6AE0E5653179}</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F0F92616-1F98-4885-9E32-6AE0E5653179}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F0F92616-1F98-4885-9E32-6AE0E5653179}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Nom</t>
   </si>
@@ -315,6 +315,33 @@
   </si>
   <si>
     <t>Sean</t>
+  </si>
+  <si>
+    <t>Aimez</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Bryche</t>
+  </si>
+  <si>
+    <t>Alibart</t>
+  </si>
+  <si>
+    <t>Fabien</t>
+  </si>
+  <si>
+    <t>Sarry</t>
+  </si>
+  <si>
+    <t>Frédéric</t>
   </si>
 </sst>
 </file>
@@ -901,17 +928,20 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1294,7 +1324,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A7" dT="2024-09-16T18:46:44.38" personId="{0127F0C8-0638-4D33-A09B-9F75709AB5E4}" id="{F0F92616-1F98-4885-9E32-6AE0E5653179}">
+  <threadedComment ref="A11" dT="2024-09-16T18:46:44.38" personId="{0127F0C8-0638-4D33-A09B-9F75709AB5E4}" id="{F0F92616-1F98-4885-9E32-6AE0E5653179}">
     <text>Chargé de cours</text>
   </threadedComment>
 </ThreadedComments>
@@ -1302,14 +1332,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7DF284-36B7-412E-B55B-62E953CF24D6}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1326,494 +1357,549 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>24461334600</v>
+        <v>88</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6603890181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="8">
-        <v>6701676836</v>
+        <v>55813759800</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7">
-        <v>55114480200</v>
+        <v>93</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13907913000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>89</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="C5" s="8">
-        <v>6506144431</v>
+        <v>7006333438</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>11839486300</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>24461334600</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8">
-        <v>7003468963</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6701676836</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7003832668</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>55114480200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8">
-        <v>7006463974</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6506144431</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>55991422500</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>11839486300</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8">
-        <v>27867697100</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7003468963</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7">
-        <v>7102597554</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7003832668</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9">
-        <v>56769394500</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7006463974</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="7">
-        <v>57225849762</v>
+        <v>7</v>
+      </c>
+      <c r="C14" s="6">
+        <v>55991422500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9">
-        <v>8672868100</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="7">
+        <v>27867697100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7">
-        <v>52363498300</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7102597554</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="8">
+        <v>56769394500</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <v>56708403000</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="6">
+        <v>57225849762</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8">
-        <v>57188877500</v>
+        <v>8672868100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8304278900</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="6">
+        <v>52363498300</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8">
-        <v>35746232100</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6602211025</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="6">
+        <v>56708403000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="7">
-        <v>57224839810</v>
+        <v>57188877500</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8">
-        <v>8706118700</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6">
+        <v>8304278900</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="7">
-        <v>15049619500</v>
+        <v>35746232100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="8">
-        <v>55991729600</v>
+        <v>42</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6602211025</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7">
-        <v>7003542171</v>
+        <v>45</v>
+      </c>
+      <c r="C27" s="6">
+        <v>57224839810</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="8">
-        <v>55926528900</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8706118700</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="7">
-        <v>57203046527</v>
+        <v>49</v>
+      </c>
+      <c r="C29" s="6">
+        <v>15049619500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="8">
-        <v>25927390000</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="7">
+        <v>55991729600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="7">
-        <v>8845658400</v>
+        <v>53</v>
+      </c>
+      <c r="C31" s="6">
+        <v>7003542171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="9">
-        <v>56032443100</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="7">
+        <v>55926528900</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="7">
-        <v>57203257291</v>
+        <v>22</v>
+      </c>
+      <c r="C33" s="6">
+        <v>57203046527</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="8">
-        <v>55520685600</v>
+        <v>57</v>
+      </c>
+      <c r="C34" s="7">
+        <v>25927390000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="7">
-        <v>8618063200</v>
+        <v>59</v>
+      </c>
+      <c r="C35" s="6">
+        <v>8845658400</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C36" s="8">
-        <v>6701359253</v>
+        <v>56032443100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="7">
-        <v>56044802700</v>
+        <v>63</v>
+      </c>
+      <c r="C37" s="6">
+        <v>57203257291</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="8">
-        <v>58181878200</v>
+        <v>65</v>
+      </c>
+      <c r="C38" s="7">
+        <v>55520685600</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="7">
-        <v>6602578630</v>
+        <v>67</v>
+      </c>
+      <c r="C39" s="6">
+        <v>8618063200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="8">
-        <v>57226696475</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6701359253</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="7">
-        <v>7003457945</v>
+        <v>11</v>
+      </c>
+      <c r="C41" s="6">
+        <v>56044802700</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="8">
-        <v>16069815900</v>
+        <v>51</v>
+      </c>
+      <c r="C42" s="7">
+        <v>58181878200</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="7">
-        <v>57188549562</v>
+        <v>72</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6602578630</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="9">
-        <v>8696456800</v>
+        <v>74</v>
+      </c>
+      <c r="C44" s="7">
+        <v>57226696475</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="11">
+        <v>9744775000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="8">
+        <v>7003457945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="11">
+        <v>16069815900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="8">
+        <v>57188549562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="11">
+        <v>8696456800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B50" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C50" s="9">
         <v>36343070000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B51" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C51" s="12">
         <v>57189456167</v>
       </c>
     </row>

--- a/pyRefSearchUdeS.xlsx
+++ b/pyRefSearchUdeS.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{C08FA9F6-1CF0-4E10-85BA-3A27D481FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560D03F7-E97A-4CA8-9328-EAE5CF0D2840}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1335" windowWidth="21450" windowHeight="19575" xr2:uid="{7630F7AB-7B4D-4574-B1CC-443EE05BEA9A}"/>
+    <workbookView xWindow="8610" yWindow="2010" windowWidth="21720" windowHeight="20745" xr2:uid="{7630F7AB-7B4D-4574-B1CC-443EE05BEA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Membres réguliers" sheetId="4" r:id="rId1"/>
@@ -928,7 +928,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -939,9 +939,7 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1334,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7DF284-36B7-412E-B55B-62E953CF24D6}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,10 +1828,10 @@
       <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="6">
         <v>9744775000</v>
       </c>
     </row>
@@ -1852,10 +1850,10 @@
       <c r="A47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="6">
         <v>16069815900</v>
       </c>
     </row>
@@ -1874,10 +1872,10 @@
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="6">
         <v>8696456800</v>
       </c>
     </row>
@@ -1896,10 +1894,10 @@
       <c r="A51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>57189456167</v>
       </c>
     </row>

--- a/pyRefSearchUdeS.xlsx
+++ b/pyRefSearchUdeS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke-my.sharepoint.com/personal/chap1202_usherbrooke_ca/Documents/Documents on OneDrive/Python/Pycharm/pyRefSearchUdeS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{C08FA9F6-1CF0-4E10-85BA-3A27D481FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560D03F7-E97A-4CA8-9328-EAE5CF0D2840}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{F65FA15C-C178-4EA2-B1C8-9536B9ECF360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF14C562-BF59-4057-B421-459B07272B87}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="2010" windowWidth="21720" windowHeight="20745" xr2:uid="{7630F7AB-7B4D-4574-B1CC-443EE05BEA9A}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Membres réguliers" sheetId="4" r:id="rId1"/>
+    <sheet name="Membres" sheetId="1" r:id="rId1"/>
+    <sheet name="Listes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,15 +39,26 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F0F92616-1F98-4885-9E32-6AE0E5653179}</author>
+    <author>tc={160C70BF-21A4-40D6-B94C-DDA4086D4EB0}</author>
+    <author>tc={996CC802-58FA-46B3-B6DD-3259678382EB}</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F0F92616-1F98-4885-9E32-6AE0E5653179}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Chargé de cours</t>
+    Chargé de cours
+Reply:
+    Changement fait</t>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{996CC802-58FA-46B3-B6DD-3259678382EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Aucun cip adresse courriel philippe.gogol@u-psud.fr sur Teams (invité)</t>
       </text>
     </comment>
   </commentList>
@@ -54,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
   <si>
     <t>Nom</t>
   </si>
@@ -62,12 +74,84 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>Scopus ID</t>
+    <t>Résidence</t>
+  </si>
+  <si>
+    <t>ID Scopus</t>
+  </si>
+  <si>
+    <t>Associé</t>
+  </si>
+  <si>
+    <t>Aimez</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Régulier</t>
+  </si>
+  <si>
+    <t>Alibart</t>
+  </si>
+  <si>
+    <t>Fabien</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Arès</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Beilliard</t>
+  </si>
+  <si>
+    <t>Yann</t>
+  </si>
+  <si>
+    <t>Blondin</t>
+  </si>
+  <si>
+    <t>Maude Josée</t>
+  </si>
+  <si>
+    <t>Non-Résident</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Boucherif</t>
+  </si>
+  <si>
+    <t>Abderraouf</t>
+  </si>
+  <si>
+    <t>Braidy</t>
+  </si>
+  <si>
+    <t>Nadi</t>
+  </si>
+  <si>
+    <t>Bryche</t>
   </si>
   <si>
     <t>Jean-François</t>
   </si>
   <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t>Charette</t>
   </si>
   <si>
@@ -80,6 +164,12 @@
     <t>Serge</t>
   </si>
   <si>
+    <t>Cherkaoui</t>
+  </si>
+  <si>
+    <t>Soumaya</t>
+  </si>
+  <si>
     <t>Corbeil-Thérien</t>
   </si>
   <si>
@@ -119,12 +209,12 @@
     <t>Ecoffey</t>
   </si>
   <si>
+    <t>Résident</t>
+  </si>
+  <si>
     <t>Ferland</t>
   </si>
   <si>
-    <t>François</t>
-  </si>
-  <si>
     <t>Fontaine</t>
   </si>
   <si>
@@ -143,6 +233,9 @@
     <t>Alexandre</t>
   </si>
   <si>
+    <t>Sylvain</t>
+  </si>
+  <si>
     <t>Gogol</t>
   </si>
   <si>
@@ -194,6 +287,9 @@
     <t>Cédérick</t>
   </si>
   <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
     <t>Lecomte</t>
   </si>
   <si>
@@ -209,15 +305,15 @@
     <t>Machon</t>
   </si>
   <si>
-    <t>Denis</t>
-  </si>
-  <si>
     <t>Maher</t>
   </si>
   <si>
     <t>Hassan</t>
   </si>
   <si>
+    <t>Frédéric</t>
+  </si>
+  <si>
     <t>Massicotte</t>
   </si>
   <si>
@@ -233,21 +329,12 @@
     <t>Nicolay</t>
   </si>
   <si>
-    <t>Sylvain</t>
-  </si>
-  <si>
     <t>Panchea</t>
   </si>
   <si>
     <t>Adina</t>
   </si>
   <si>
-    <t>Patenaude</t>
-  </si>
-  <si>
-    <t>Johane</t>
-  </si>
-  <si>
     <t>Picard</t>
   </si>
   <si>
@@ -263,12 +350,12 @@
     <t>Pratte</t>
   </si>
   <si>
+    <t xml:space="preserve">Rancourt </t>
+  </si>
+  <si>
     <t>Rancourt</t>
   </si>
   <si>
-    <t xml:space="preserve">Rancourt </t>
-  </si>
-  <si>
     <t>Rouat</t>
   </si>
   <si>
@@ -278,7 +365,7 @@
     <t>Roy</t>
   </si>
   <si>
-    <t>Sébastien</t>
+    <t>Sarry</t>
   </si>
   <si>
     <t>Soltani</t>
@@ -317,64 +404,78 @@
     <t>Sean</t>
   </si>
   <si>
-    <t>Aimez</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Canva</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Bryche</t>
-  </si>
-  <si>
-    <t>Alibart</t>
-  </si>
-  <si>
-    <t>Fabien</t>
-  </si>
-  <si>
-    <t>Sarry</t>
-  </si>
-  <si>
-    <t>Frédéric</t>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Rôles</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Inscrit</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Non-membre</t>
+  </si>
+  <si>
+    <t>Hors UdeS</t>
+  </si>
+  <si>
+    <t>Intéressé</t>
+  </si>
+  <si>
+    <t>6603795466</t>
+  </si>
+  <si>
+    <t>56769394500</t>
+  </si>
+  <si>
+    <t>8845658400</t>
+  </si>
+  <si>
+    <t>9744775000</t>
+  </si>
+  <si>
+    <t>13907913000</t>
+  </si>
+  <si>
+    <t>7003710939</t>
+  </si>
+  <si>
+    <t>Aucun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,7 +483,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,35 +491,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -426,7 +527,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -434,14 +535,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,14 +550,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -464,7 +565,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -472,14 +573,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -487,7 +603,27 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -498,7 +634,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,35 +817,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -824,169 +942,175 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" xr:uid="{2EFAEE7C-2EDE-44A7-BEB5-321A10C5A4BC}"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="45">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="44" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Monétaire 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1001,8 +1125,23 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mélanie Lalancette" id="{0127F0C8-0638-4D33-A09B-9F75709AB5E4}" userId="S::lalm2907@usherbrooke.ca::c536440a-4395-4bee-8fe5-7c11ce558aa7" providerId="AD"/>
+  <person displayName="Mélanie Lalancette" id="{78D8EA03-4F61-4CA0-B0DE-675E94CCEBC6}" userId="S::lalm2907@usherbrooke.ca::c536440a-4395-4bee-8fe5-7c11ce558aa7" providerId="AD"/>
+  <person displayName="Mélanie Ruffin" id="{BF73AAC3-A90E-4B87-86D4-2653B6C2F9BD}" userId="S::rufm3301@usherbrooke.ca::ec130d1e-8337-43cf-b92f-f02128c8ed54" providerId="AD"/>
 </personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:C56" totalsRowShown="0">
+  <autoFilter ref="A1:C56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nom" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Prénom"/>
+    <tableColumn id="5" xr3:uid="{D04B8371-3D6D-4DF1-818C-9815929B92AC}" name="ID Scopus" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(#REF!,#REF!,5,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,39 +1155,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1081,26 +1220,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1133,23 +1255,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1211,6 +1316,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1219,13 +1331,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1290,31 +1395,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1322,587 +1407,1056 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A11" dT="2024-09-16T18:46:44.38" personId="{0127F0C8-0638-4D33-A09B-9F75709AB5E4}" id="{F0F92616-1F98-4885-9E32-6AE0E5653179}">
+  <threadedComment ref="A17" dT="2024-09-16T18:46:44.38" personId="{78D8EA03-4F61-4CA0-B0DE-675E94CCEBC6}" id="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
     <text>Chargé de cours</text>
+  </threadedComment>
+  <threadedComment ref="A17" dT="2024-10-22T18:22:18.85" personId="{BF73AAC3-A90E-4B87-86D4-2653B6C2F9BD}" id="{B9861462-E55A-4801-ABEE-F2E8CBD7B728}" parentId="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
+    <text>Changement fait</text>
+  </threadedComment>
+  <threadedComment ref="B25" dT="2024-10-29T14:24:04.17" personId="{BF73AAC3-A90E-4B87-86D4-2653B6C2F9BD}" id="{996CC802-58FA-46B3-B6DD-3259678382EB}">
+    <text>Aucun cip adresse courriel philippe.gogol@u-psud.fr sur Teams (invité)</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>2237884785</xltc2:checksum>
+        <xltc2:hyperlink startIndex="27" length="24" url="philippe.gogol@u-psud.fr"/>
+      </x:ext>
+    </extLst>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7DF284-36B7-412E-B55B-62E953CF24D6}">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>6603890181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>56034685500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>55838183100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7">
+        <v>55112630700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6603170135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7">
+        <v>55813759800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7006333438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7">
+        <v>24461334600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6701676836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7">
+        <v>55114480200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6506144431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11839486300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7003468963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7003832668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7006463974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7">
+        <v>55991422500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>27867697100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7102597554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7">
+        <v>57225849762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8672868100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7">
+        <v>52363498300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7">
+        <v>56708403000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7">
+        <v>57188877500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8304278900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="7">
+        <v>35746232100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6602211025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="7">
+        <v>56421713100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7">
+        <v>8706118700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="7">
+        <v>15049619500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7">
+        <v>55991729600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="7">
+        <v>7003542171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="7">
+        <v>55926528900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="7">
+        <v>57203046527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="7">
+        <v>25927390000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="7">
+        <v>56032443100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="7">
+        <v>55520685600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="7">
+        <v>8618063200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="7">
+        <v>6701359253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="8">
+        <v>58181878200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="8">
+        <v>56044802700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="7">
+        <v>6602578630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="7">
+        <v>57226696475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="7">
+        <v>7003457945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="7">
+        <v>16069815900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="7">
+        <v>57188549562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="7">
+        <v>8696456800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="7">
+        <v>36343070000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="7">
+        <v>57189456167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C361:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"Régulier"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"Collaborateur"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9DA5DB-4D42-496F-8649-24EC5E54CFBD}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="6">
-        <v>6603890181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8">
-        <v>55813759800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="6">
-        <v>13907913000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="8">
-        <v>7006333438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>24461334600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6701676836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>55114480200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7">
-        <v>6506144431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6">
-        <v>11839486300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7003468963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6">
-        <v>7003832668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7006463974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6">
-        <v>55991422500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>27867697100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6">
-        <v>7102597554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8">
-        <v>56769394500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="6">
-        <v>57225849762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="8">
-        <v>8672868100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6">
-        <v>52363498300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6">
-        <v>56708403000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7">
-        <v>57188877500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="6">
-        <v>8304278900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="7">
-        <v>35746232100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6">
-        <v>6602211025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="6">
-        <v>57224839810</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="7">
-        <v>8706118700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="6">
-        <v>15049619500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="7">
-        <v>55991729600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="6">
-        <v>7003542171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="7">
-        <v>55926528900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="6">
-        <v>57203046527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="7">
-        <v>25927390000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="6">
-        <v>8845658400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="8">
-        <v>56032443100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="6">
-        <v>57203257291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="7">
-        <v>55520685600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="6">
-        <v>8618063200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="7">
-        <v>6701359253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="6">
-        <v>56044802700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="7">
-        <v>58181878200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="6">
-        <v>6602578630</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="7">
-        <v>57226696475</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="6">
-        <v>9744775000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="8">
-        <v>7003457945</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="6">
-        <v>16069815900</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="8">
-        <v>57188549562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="6">
-        <v>8696456800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="9">
-        <v>36343070000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="10">
-        <v>57189456167</v>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f8a51d5e-80c6-4a43-8532-78822a120e6f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C7390F7FA63C124E836E0EE5F3B65DF9" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="707984fe8facdd1c115d7dd18db5cd18">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c" xmlns:ns3="f8a51d5e-80c6-4a43-8532-78822a120e6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28bd1b731b1f6efdf23a0d4eea2c3a35" ns2:_="" ns3:_="">
+    <xsd:import namespace="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c"/>
+    <xsd:import namespace="f8a51d5e-80c6-4a43-8532-78822a120e6f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d264a842-8adc-43f3-ad4e-91e5e271ce18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f8a51d5e-80c6-4a43-8532-78822a120e6f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1dd42f2d-f82d-4a8f-b9ed-8c1ebe312a44}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="f8a51d5e-80c6-4a43-8532-78822a120e6f">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C560D5BA-6FDD-4CB0-9815-AD4A12505939}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f8a51d5e-80c6-4a43-8532-78822a120e6f"/>
+    <ds:schemaRef ds:uri="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A7282B-DC2B-42BC-9E38-79C29CC62F65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c"/>
+    <ds:schemaRef ds:uri="f8a51d5e-80c6-4a43-8532-78822a120e6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9046B1-1957-4ABE-B475-024E4BBB294A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/pyRefSearchUdeS.xlsx
+++ b/pyRefSearchUdeS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke-my.sharepoint.com/personal/chap1202_usherbrooke_ca/Documents/Documents on OneDrive/Python/Pycharm/pyRefSearchUdeS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{F65FA15C-C178-4EA2-B1C8-9536B9ECF360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF14C562-BF59-4057-B421-459B07272B87}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{F65FA15C-C178-4EA2-B1C8-9536B9ECF360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA6B8171-F78E-4E9B-85A1-FD322B19664D}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="1230" windowWidth="26745" windowHeight="21315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Membres" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>tc={996CC802-58FA-46B3-B6DD-3259678382EB}</author>
   </authors>
   <commentList>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
     Changement fait</t>
       </text>
     </comment>
-    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{996CC802-58FA-46B3-B6DD-3259678382EB}">
+    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{996CC802-58FA-46B3-B6DD-3259678382EB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>Nom</t>
   </si>
@@ -164,12 +164,6 @@
     <t>Serge</t>
   </si>
   <si>
-    <t>Cherkaoui</t>
-  </si>
-  <si>
-    <t>Soumaya</t>
-  </si>
-  <si>
     <t>Corbeil-Thérien</t>
   </si>
   <si>
@@ -441,9 +435,6 @@
   </si>
   <si>
     <t>13907913000</t>
-  </si>
-  <si>
-    <t>7003710939</t>
   </si>
   <si>
     <t>Aucun</t>
@@ -1131,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:C56" totalsRowShown="0">
-  <autoFilter ref="A1:C56" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:C55" totalsRowShown="0">
+  <autoFilter ref="A1:C55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nom" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Prénom"/>
@@ -1407,13 +1398,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A17" dT="2024-09-16T18:46:44.38" personId="{78D8EA03-4F61-4CA0-B0DE-675E94CCEBC6}" id="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
+  <threadedComment ref="A16" dT="2024-09-16T18:46:44.38" personId="{78D8EA03-4F61-4CA0-B0DE-675E94CCEBC6}" id="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
     <text>Chargé de cours</text>
   </threadedComment>
-  <threadedComment ref="A17" dT="2024-10-22T18:22:18.85" personId="{BF73AAC3-A90E-4B87-86D4-2653B6C2F9BD}" id="{B9861462-E55A-4801-ABEE-F2E8CBD7B728}" parentId="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
+  <threadedComment ref="A16" dT="2024-10-22T18:22:18.85" personId="{BF73AAC3-A90E-4B87-86D4-2653B6C2F9BD}" id="{B9861462-E55A-4801-ABEE-F2E8CBD7B728}" parentId="{160C70BF-21A4-40D6-B94C-DDA4086D4EB0}">
     <text>Changement fait</text>
   </threadedComment>
-  <threadedComment ref="B25" dT="2024-10-29T14:24:04.17" personId="{BF73AAC3-A90E-4B87-86D4-2653B6C2F9BD}" id="{996CC802-58FA-46B3-B6DD-3259678382EB}">
+  <threadedComment ref="B24" dT="2024-10-29T14:24:04.17" personId="{BF73AAC3-A90E-4B87-86D4-2653B6C2F9BD}" id="{996CC802-58FA-46B3-B6DD-3259678382EB}">
     <text>Aucun cip adresse courriel philippe.gogol@u-psud.fr sur Teams (invité)</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -1427,13 +1418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1435,7 @@
     <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1457,7 @@
         <v>6603890181</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1474,10 +1465,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1485,10 +1476,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1490,7 @@
         <v>56034685500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1501,7 @@
         <v>55838183100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1512,7 @@
         <v>55112630700</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1532,7 +1523,7 @@
         <v>6603170135</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1534,7 @@
         <v>55813759800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1545,7 @@
         <v>7006333438</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +1556,7 @@
         <v>24461334600</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1576,18 +1567,18 @@
         <v>6701676836</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>55114480200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1595,10 +1586,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="7">
-        <v>55114480200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6506144431</v>
+      </c>
+      <c r="K14">
+        <v>7003710939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1606,10 +1600,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="7">
-        <v>6506144431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11839486300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1611,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="7">
-        <v>11839486300</v>
+        <v>7003468963</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1628,7 +1622,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="7">
-        <v>7003468963</v>
+        <v>7003832668</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1639,40 +1633,40 @@
         <v>43</v>
       </c>
       <c r="C18" s="7">
-        <v>7003832668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7006463974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
-        <v>7006463974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55991422500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>55991422500</v>
+        <v>27867697100</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
       <c r="C21" s="7">
-        <v>27867697100</v>
+        <v>7102597554</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,8 +1676,8 @@
       <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="7">
-        <v>7102597554</v>
+      <c r="C22" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1693,30 +1687,30 @@
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C23" s="7">
+        <v>57225849762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C24" s="7">
-        <v>57225849762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+        <v>8672868100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="7">
-        <v>8672868100</v>
+        <v>52363498300</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,8 +1720,8 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="7">
-        <v>52363498300</v>
+      <c r="C26" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,21 +1729,21 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
+      </c>
+      <c r="C27" s="7">
+        <v>56708403000</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
       <c r="C28" s="7">
-        <v>56708403000</v>
+        <v>57188877500</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1760,7 +1754,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>57188877500</v>
+        <v>8304278900</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1771,10 +1765,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>8304278900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35746232100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1782,10 +1776,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>35746232100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6602211025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1793,18 +1787,18 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>6602211025</v>
+        <v>56421713100</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="7">
-        <v>56421713100</v>
+        <v>8706118700</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,7 +1809,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="7">
-        <v>8706118700</v>
+        <v>15049619500</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,32 +1817,32 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C35" s="7">
-        <v>15049619500</v>
+        <v>55991729600</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
       <c r="C36" s="7">
-        <v>55991729600</v>
+        <v>7003542171</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="7">
-        <v>7003542171</v>
+        <v>55926528900</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,21 +1850,21 @@
         <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C38" s="7">
-        <v>55926528900</v>
+        <v>57203046527</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C39" s="7">
-        <v>57203046527</v>
+        <v>25927390000</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,21 +1872,21 @@
         <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="7">
-        <v>25927390000</v>
+        <v>53</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>122</v>
+      <c r="C41" s="7">
+        <v>56032443100</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,7 +1897,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="7">
-        <v>56032443100</v>
+        <v>55520685600</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,7 +1908,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="7">
-        <v>55520685600</v>
+        <v>8618063200</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,43 +1916,43 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C44" s="7">
-        <v>8618063200</v>
+        <v>6701359253</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="7">
-        <v>6701359253</v>
+        <v>13</v>
+      </c>
+      <c r="C45" s="8">
+        <v>58181878200</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C46" s="8">
-        <v>58181878200</v>
+        <v>56044802700</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="8">
-        <v>56044802700</v>
+      <c r="C47" s="7">
+        <v>6602578630</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1966,32 +1960,32 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7">
-        <v>6602578630</v>
+        <v>57226696475</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="7">
-        <v>57226696475</v>
+        <v>79</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>123</v>
+      <c r="C50" s="7">
+        <v>7003457945</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2002,7 +1996,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="7">
-        <v>7003457945</v>
+        <v>16069815900</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,7 +2007,7 @@
         <v>103</v>
       </c>
       <c r="C52" s="7">
-        <v>16069815900</v>
+        <v>57188549562</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2024,7 +2018,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="7">
-        <v>57188549562</v>
+        <v>8696456800</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,7 +2029,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="7">
-        <v>8696456800</v>
+        <v>36343070000</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,23 +2040,12 @@
         <v>109</v>
       </c>
       <c r="C55" s="7">
-        <v>36343070000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="7">
         <v>57189456167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C361:C1048576">
+  <conditionalFormatting sqref="C360:C1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2101,16 +2084,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,13 +2101,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,18 +2118,18 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2166,6 +2149,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C7390F7FA63C124E836E0EE5F3B65DF9" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="707984fe8facdd1c115d7dd18db5cd18">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c" xmlns:ns3="f8a51d5e-80c6-4a43-8532-78822a120e6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28bd1b731b1f6efdf23a0d4eea2c3a35" ns2:_="" ns3:_="">
     <xsd:import namespace="ba07c27d-ebaf-4d97-8bd5-e86b44380a2c"/>
@@ -2408,15 +2400,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C560D5BA-6FDD-4CB0-9815-AD4A12505939}">
   <ds:schemaRefs>
@@ -2435,6 +2418,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9046B1-1957-4ABE-B475-024E4BBB294A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A7282B-DC2B-42BC-9E38-79C29CC62F65}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2451,12 +2442,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9046B1-1957-4ABE-B475-024E4BBB294A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>